--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146049.0448975937</v>
+        <v>25242364.95832112</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146049.0448975937</v>
+        <v>25242364.95832112</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8240.282059649884</v>
+        <v>884267.4583571691</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8240.282059649884</v>
+        <v>884267.4583571691</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1264672919.863195</v>
+        <v>50170949.21723933</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8991.529822148992</v>
+        <v>997070.5018306593</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17970.38021494991</v>
+        <v>2030830.845167394</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26949.31326071301</v>
+        <v>3064794.804039053</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36299.90961088954</v>
+        <v>4085599.640090247</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45458.78787514352</v>
+        <v>5119118.415305352</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54626.97690179962</v>
+        <v>6154490.032238472</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>63795.16592845572</v>
+        <v>7189861.64917159</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72963.35495511182</v>
+        <v>8225233.266104707</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82315.84213570891</v>
+        <v>9263939.592591081</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>91294.14575337899</v>
+        <v>10294707.64692619</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100247.9819529992</v>
+        <v>11325840.70898213</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>109054.7987780036</v>
+        <v>12359506.12248735</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>117861.3850816794</v>
+        <v>13393125.66224776</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>127089.0583991486</v>
+        <v>14388155.81984049</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>137034.2935336354</v>
+        <v>15307231.91887344</v>
       </c>
     </row>
   </sheetData>
